--- a/xlFiles/redBusData.xlsx
+++ b/xlFiles/redBusData.xlsx
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,12 +72,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,44 +389,46 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
